--- a/docassemble/MAEvictionDefense/data/sources/eviction_vi.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_vi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26207,7 +26207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26239,6 +26239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -26260,7 +26267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -26277,6 +26284,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -26586,8 +26597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" topLeftCell="G496" workbookViewId="0">
+      <selection activeCell="H338" sqref="H338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38350,7 +38361,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>291</v>
       </c>
@@ -38372,11 +38383,11 @@
       <c r="G453" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="H453" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H453" s="7" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>291</v>
       </c>
@@ -38398,11 +38409,11 @@
       <c r="G454" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="H454" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H454" s="7" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>291</v>
       </c>
@@ -38424,11 +38435,11 @@
       <c r="G455" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="H455" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H455" s="7" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>291</v>
       </c>
@@ -38450,11 +38461,11 @@
       <c r="G456" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="H456" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H456" s="7" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>291</v>
       </c>
@@ -38476,11 +38487,11 @@
       <c r="G457" s="3" t="s">
         <v>1399</v>
       </c>
-      <c r="H457" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H457" s="7" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>291</v>
       </c>
@@ -38502,11 +38513,11 @@
       <c r="G458" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="H458" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H458" s="7" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>291</v>
       </c>
@@ -38528,11 +38539,11 @@
       <c r="G459" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="H459" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H459" s="7" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>291</v>
       </c>
@@ -38554,11 +38565,11 @@
       <c r="G460" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="H460" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H460" s="7" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>291</v>
       </c>
@@ -38580,11 +38591,11 @@
       <c r="G461" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="H461" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H461" s="7" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>291</v>
       </c>
@@ -38606,11 +38617,11 @@
       <c r="G462" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="H462" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H462" s="7" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>291</v>
       </c>
@@ -38632,11 +38643,11 @@
       <c r="G463" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="H463" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H463" s="7" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>291</v>
       </c>
@@ -38658,11 +38669,11 @@
       <c r="G464" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="H464" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H464" s="7" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>291</v>
       </c>
@@ -38684,11 +38695,11 @@
       <c r="G465" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="H465" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H465" s="7" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>291</v>
       </c>
@@ -38710,8 +38721,8 @@
       <c r="G466" s="3" t="s">
         <v>1417</v>
       </c>
-      <c r="H466" s="4" t="s">
-        <v>369</v>
+      <c r="H466" s="7" t="s">
+        <v>2209</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">

--- a/docassemble/MAEvictionDefense/data/sources/eviction_vi.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_vi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="2246">
   <si>
     <t>interview</t>
   </si>
@@ -26624,10 +26624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H738"/>
+  <dimension ref="A1:H737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713:XFD713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45150,18 +45150,18 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>574</v>
+        <v>1381</v>
       </c>
       <c r="C713" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>590</v>
+        <v>2189</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>11</v>
@@ -45170,10 +45170,10 @@
         <v>12</v>
       </c>
       <c r="G713" s="3" t="s">
-        <v>591</v>
+        <v>2190</v>
       </c>
       <c r="H713" s="4" t="s">
-        <v>2188</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
@@ -45181,13 +45181,13 @@
         <v>298</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1381</v>
+        <v>1607</v>
       </c>
       <c r="C714" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>11</v>
@@ -45196,10 +45196,10 @@
         <v>12</v>
       </c>
       <c r="G714" s="3" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="H714" s="4" t="s">
-        <v>1407</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
@@ -45207,13 +45207,13 @@
         <v>298</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1607</v>
+        <v>1057</v>
       </c>
       <c r="C715" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>11</v>
@@ -45222,10 +45222,10 @@
         <v>12</v>
       </c>
       <c r="G715" s="3" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="H715" s="4" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
@@ -45233,13 +45233,13 @@
         <v>298</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1057</v>
+        <v>1381</v>
       </c>
       <c r="C716" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>11</v>
@@ -45248,10 +45248,10 @@
         <v>12</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="H716" s="4" t="s">
-        <v>2195</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -45259,13 +45259,13 @@
         <v>298</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1381</v>
+        <v>1057</v>
       </c>
       <c r="C717" s="2">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -45274,10 +45274,10 @@
         <v>12</v>
       </c>
       <c r="G717" s="3" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="H717" s="4" t="s">
-        <v>1419</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -45285,13 +45285,13 @@
         <v>298</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1057</v>
+        <v>1381</v>
       </c>
       <c r="C718" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>11</v>
@@ -45300,10 +45300,10 @@
         <v>12</v>
       </c>
       <c r="G718" s="3" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>2200</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -45311,13 +45311,13 @@
         <v>298</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1381</v>
+        <v>1146</v>
       </c>
       <c r="C719" s="2">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>11</v>
@@ -45326,10 +45326,10 @@
         <v>12</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>1398</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -45337,13 +45337,13 @@
         <v>298</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1146</v>
+        <v>1216</v>
       </c>
       <c r="C720" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -45352,10 +45352,10 @@
         <v>12</v>
       </c>
       <c r="G720" s="3" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -45363,13 +45363,13 @@
         <v>298</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1216</v>
+        <v>1146</v>
       </c>
       <c r="C721" s="2">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>11</v>
@@ -45378,10 +45378,10 @@
         <v>12</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -45389,13 +45389,13 @@
         <v>298</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1146</v>
+        <v>1381</v>
       </c>
       <c r="C722" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>11</v>
@@ -45404,10 +45404,10 @@
         <v>12</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>2209</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -45415,13 +45415,13 @@
         <v>298</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1381</v>
+        <v>1146</v>
       </c>
       <c r="C723" s="2">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -45430,10 +45430,10 @@
         <v>12</v>
       </c>
       <c r="G723" s="3" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="H723" s="4" t="s">
-        <v>1425</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -45441,13 +45441,13 @@
         <v>298</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1146</v>
+        <v>1381</v>
       </c>
       <c r="C724" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>11</v>
@@ -45456,10 +45456,10 @@
         <v>12</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="H724" s="4" t="s">
-        <v>2213</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -45470,10 +45470,10 @@
         <v>1381</v>
       </c>
       <c r="C725" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>11</v>
@@ -45482,10 +45482,10 @@
         <v>12</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="H725" s="4" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
@@ -45493,13 +45493,13 @@
         <v>298</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1381</v>
+        <v>670</v>
       </c>
       <c r="C726" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>11</v>
@@ -45508,10 +45508,10 @@
         <v>12</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="H726" s="4" t="s">
-        <v>1413</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
@@ -45519,13 +45519,13 @@
         <v>298</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>670</v>
+        <v>1607</v>
       </c>
       <c r="C727" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>11</v>
@@ -45534,10 +45534,10 @@
         <v>12</v>
       </c>
       <c r="G727" s="3" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="H727" s="4" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -45545,13 +45545,13 @@
         <v>298</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1607</v>
+        <v>1057</v>
       </c>
       <c r="C728" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>11</v>
@@ -45560,10 +45560,10 @@
         <v>12</v>
       </c>
       <c r="G728" s="3" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="H728" s="4" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -45571,13 +45571,13 @@
         <v>298</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1057</v>
+        <v>1381</v>
       </c>
       <c r="C729" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>11</v>
@@ -45586,10 +45586,10 @@
         <v>12</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="H729" s="4" t="s">
-        <v>2225</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -45600,10 +45600,10 @@
         <v>1381</v>
       </c>
       <c r="C730" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>11</v>
@@ -45612,10 +45612,10 @@
         <v>12</v>
       </c>
       <c r="G730" s="3" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="H730" s="4" t="s">
-        <v>1431</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -45623,13 +45623,13 @@
         <v>298</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1381</v>
+        <v>347</v>
       </c>
       <c r="C731" s="2">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>11</v>
@@ -45638,10 +45638,10 @@
         <v>12</v>
       </c>
       <c r="G731" s="3" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="H731" s="4" t="s">
-        <v>1404</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
@@ -45649,13 +45649,13 @@
         <v>298</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>347</v>
+        <v>1381</v>
       </c>
       <c r="C732" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>11</v>
@@ -45664,10 +45664,10 @@
         <v>12</v>
       </c>
       <c r="G732" s="3" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="H732" s="4" t="s">
-        <v>2232</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
@@ -45675,13 +45675,13 @@
         <v>298</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1381</v>
+        <v>1194</v>
       </c>
       <c r="C733" s="2">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>11</v>
@@ -45690,10 +45690,10 @@
         <v>12</v>
       </c>
       <c r="G733" s="3" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="H733" s="4" t="s">
-        <v>1434</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -45701,13 +45701,13 @@
         <v>298</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1194</v>
+        <v>1146</v>
       </c>
       <c r="C734" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>11</v>
@@ -45716,10 +45716,10 @@
         <v>12</v>
       </c>
       <c r="G734" s="3" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="H734" s="4" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -45730,10 +45730,10 @@
         <v>1146</v>
       </c>
       <c r="C735" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>11</v>
@@ -45742,10 +45742,10 @@
         <v>12</v>
       </c>
       <c r="G735" s="3" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="H735" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -45753,13 +45753,13 @@
         <v>298</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1146</v>
+        <v>1381</v>
       </c>
       <c r="C736" s="2">
         <v>2013</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>11</v>
@@ -45768,10 +45768,10 @@
         <v>12</v>
       </c>
       <c r="G736" s="3" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="H736" s="4" t="s">
-        <v>2241</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -45782,10 +45782,10 @@
         <v>1381</v>
       </c>
       <c r="C737" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>11</v>
@@ -45794,40 +45794,14 @@
         <v>12</v>
       </c>
       <c r="G737" s="3" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="H737" s="4" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A738" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C738" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D738" s="2" t="s">
-        <v>2244</v>
-      </c>
-      <c r="E738" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F738" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>2245</v>
-      </c>
-      <c r="H738" s="4" t="s">
         <v>1410</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>